--- a/doc/template/UnitFolder/Unit_interface填写指南.xlsx
+++ b/doc/template/UnitFolder/Unit_interface填写指南.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\doc\template\UnitFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3FDA73-00EA-464D-B0C9-A7BF29EBE804}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42F3ABC-5852-4997-AB9F-A4B3DD8F96C7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总则" sheetId="9" r:id="rId1"/>
@@ -789,9 +789,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TRQ_ZERO</t>
-  </si>
-  <si>
     <t>Trq_Nm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -897,10 +894,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常量（"Const"）,是指在软件运行期间不可标定、不可更改值的量。对于一些有物理意义的常量，可以在该表格里定义，便于理解。相当于C语言里的符号常量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后面每一页当中都会有一些关于填写的示例和细则，请注意遵从。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -910,6 +903,14 @@
   </si>
   <si>
     <t>请不要更改表格任何格式，包括字体、字号、单元格对齐方式、行高等，仅填写内容。对于从其它地方复制过来的内容，仅保留源值，不要保留格式。对于列宽，出于显示需要，可以适当调整。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量（"Const"）,是指在软件运行期间不可标定、不可更改值的量。对于一些有物理意义的常量，可以在该表格里定义，便于理解。相当于C语言里的符号常量。在单元接口文件里，仅定义这个单元使用的常量，以单元模块名开头，以免重复；在多个单元模型里使用的常量，定义在系统常量表格里，不在单元接口文件里定义。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StSys_TRQ_ZERO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1357,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F83BF1-B029-45B1-86DA-A0028B373ECD}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1373,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.15">
@@ -1389,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.15">
@@ -1397,7 +1398,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.15">
@@ -1413,15 +1414,15 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="66" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -1429,7 +1430,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -1437,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1452,7 +1453,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1561,7 +1562,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1647,7 +1648,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -1662,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1681,7 +1682,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1738,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>24</v>
@@ -1785,7 +1786,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1855,7 +1856,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -1864,16 +1865,16 @@
         <v>255</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1893,7 +1894,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>24</v>
@@ -2042,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2075,19 +2076,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F2" s="9"/>
     </row>
